--- a/biology/Botanique/Médéric_de_Vasselot_de_Régné/Médéric_de_Vasselot_de_Régné.xlsx
+++ b/biology/Botanique/Médéric_de_Vasselot_de_Régné/Médéric_de_Vasselot_de_Régné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9d%C3%A9ric_de_Vasselot_de_R%C3%A9gn%C3%A9</t>
+          <t>Médéric_de_Vasselot_de_Régné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médéric de Vasselot de Régné[1] (4 août 1837 à Saint-Maxent - 23 avril 1919 à La Guillotière) est un officier forestier d'origine française formé à l'École nationale des forêts de Nancy, en France, et nommé surintendant des bois et forêts en Afrique du Sud en 1880. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médéric de Vasselot de Régné (4 août 1837 à Saint-Maxent - 23 avril 1919 à La Guillotière) est un officier forestier d'origine française formé à l'École nationale des forêts de Nancy, en France, et nommé surintendant des bois et forêts en Afrique du Sud en 1880. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9d%C3%A9ric_de_Vasselot_de_R%C3%A9gn%C3%A9</t>
+          <t>Médéric_de_Vasselot_de_Régné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Carrière française</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médéric de Vasselot de Régné, officier forestier français, a été formé à l’École nationale des eaux et forêts de Nancy, à partir de 1856. Après avoir terminé sa formation, il est nommé garde général des forêts au Mans, dans la Sarthe (1858), puis à Saint Béat dans les Pyrénées (1859), à Arnay-le-Duc, près de Dijon (1860), à Marennes, Charente-Maritime (1861), et à proximité de Royan (1862), où il participe à la stabilisation des dunes de sable. En 1868, il est promu inspecteur adjoint des forêts et en 1877 inspecteur des forêts à Poitiers. Il  participe au reboisement étendu des plaines de sable de Gascogne avec Pinus pinaster, un arbre planté plus tard à grande échelle en Afrique du Sud, et il écrit une monographie publiée par l'Administration des forêts du ministère de l'Agriculture, intitulé Notice sur les dunes de la Coubre, Charente Interieur; Paris 1878, 78p[2])[3].
-Du 27 octobre 1880 au 12 mars 1892, mis à la disposition du Gouvernement de la Grande-Bretagne pour servir à la Colonie du Cap, soit de l'âge de 43 à 55 an[4].
-De 1892 à 1899, il est conservateur au Mans, puis à Carcassonne. Il prend sa retraite à Poitiers où il décède le 24 décembre 1919[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médéric de Vasselot de Régné, officier forestier français, a été formé à l’École nationale des eaux et forêts de Nancy, à partir de 1856. Après avoir terminé sa formation, il est nommé garde général des forêts au Mans, dans la Sarthe (1858), puis à Saint Béat dans les Pyrénées (1859), à Arnay-le-Duc, près de Dijon (1860), à Marennes, Charente-Maritime (1861), et à proximité de Royan (1862), où il participe à la stabilisation des dunes de sable. En 1868, il est promu inspecteur adjoint des forêts et en 1877 inspecteur des forêts à Poitiers. Il  participe au reboisement étendu des plaines de sable de Gascogne avec Pinus pinaster, un arbre planté plus tard à grande échelle en Afrique du Sud, et il écrit une monographie publiée par l'Administration des forêts du ministère de l'Agriculture, intitulé Notice sur les dunes de la Coubre, Charente Interieur; Paris 1878, 78p).
+Du 27 octobre 1880 au 12 mars 1892, mis à la disposition du Gouvernement de la Grande-Bretagne pour servir à la Colonie du Cap, soit de l'âge de 43 à 55 an.
+De 1892 à 1899, il est conservateur au Mans, puis à Carcassonne. Il prend sa retraite à Poitiers où il décède le 24 décembre 1919
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9d%C3%A9ric_de_Vasselot_de_R%C3%A9gn%C3%A9</t>
+          <t>Médéric_de_Vasselot_de_Régné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>En Afrique du Sud</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du 27 octobre 1880 au 12 mars 1892, De Vasselot est mis à la disposition du Gouvernement de la Grande-Bretagne pour servir à la Colonie du Cap au poste de surintendant des bois et forêts. C'est la première fois qu'un forestier professionnel est nommé à cette charge et c'est un tournant dans la foresterie sud-africaine. Pour la première fois, les autorités sont persuadées qu'une politique sylvicole saine est plus importante que les revenus tirés de l'exploitation. Les détails du nouveau système de gestion ont été précisés dans le règlement forestier de 1883. Lorsque de Vasselot quitte le Cap en 1891, les forêts de George, Knysna et Tsitsikamma sont gérées sur une base scientifique[5]. Deux publications importantes de de Vasselot en 1885 étaient une "Introduction to the Systematic Treatment of the Crown Forests of the Cape Colony" et une brochure sur "Selection and Seasoning of Wood", toutes deux traduites en anglais par le conservateur des forêts de Transkeian, AW Heywood[6]. 
-Vasselot introduit le pin maritime en Afrique du Sud[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du 27 octobre 1880 au 12 mars 1892, De Vasselot est mis à la disposition du Gouvernement de la Grande-Bretagne pour servir à la Colonie du Cap au poste de surintendant des bois et forêts. C'est la première fois qu'un forestier professionnel est nommé à cette charge et c'est un tournant dans la foresterie sud-africaine. Pour la première fois, les autorités sont persuadées qu'une politique sylvicole saine est plus importante que les revenus tirés de l'exploitation. Les détails du nouveau système de gestion ont été précisés dans le règlement forestier de 1883. Lorsque de Vasselot quitte le Cap en 1891, les forêts de George, Knysna et Tsitsikamma sont gérées sur une base scientifique. Deux publications importantes de de Vasselot en 1885 étaient une "Introduction to the Systematic Treatment of the Crown Forests of the Cape Colony" et une brochure sur "Selection and Seasoning of Wood", toutes deux traduites en anglais par le conservateur des forêts de Transkeian, AW Heywood. 
+Vasselot introduit le pin maritime en Afrique du Sud. 
 Le souvenir de De Vasselot est commémoré dans la Vasselot Nature Reserve entourant Nature's Valley. 
 </t>
         </is>
